--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_03-02_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_03-02_end.xlsx
@@ -1096,11 +1096,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Skullshatterer"]   There is a saying in Ursus. "Welcome your kin as you would welcome the warm spring..."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Skullshatterer"]   "But welcome your enemies..."
+    <t xml:space="preserve">[name="Skullshatterer"]   There is a saying in Ursus. 'Welcome your kin as you would welcome the warm spring...'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Skullshatterer"]   'But welcome your enemies...'
 </t>
   </si>
   <si>
